--- a/TestData/Data/YearStudy.xlsx
+++ b/TestData/Data/YearStudy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fouad.Systems\Desktop\Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Trainning_Institution_System\1-Cplus\TestData\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>3</t>
   </si>
@@ -405,12 +405,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
@@ -444,8 +444,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -464,8 +464,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -484,8 +484,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
